--- a/data/raw/comptages_terrain/debarquements/us_med_pnmcca_observatoire_comptage_terrain_debarquements_2023-08-10.xlsx
+++ b/data/raw/comptages_terrain/debarquements/us_med_pnmcca_observatoire_comptage_terrain_debarquements_2023-08-10.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12180" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="13395" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="metadata_comptages" sheetId="28" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="40">
   <si>
     <t>Secteur</t>
   </si>
@@ -73,7 +73,7 @@
     <t>Taxi beach</t>
   </si>
   <si>
-    <t>Taxi baot (popeye /saleccia)</t>
+    <t>Taxi boat (popeye/saleccia)</t>
   </si>
   <si>
     <t>Ancrage chenal</t>
@@ -103,7 +103,7 @@
     <t>Perlanera</t>
   </si>
   <si>
-    <t>Autres Sociétés</t>
+    <t>Autres sociétés</t>
   </si>
   <si>
     <t>Particuliers</t>
@@ -113,9 +113,6 @@
   </si>
   <si>
     <t>U Saleccia</t>
-  </si>
-  <si>
-    <t>Taxi baot (popeye/saleccia)</t>
   </si>
   <si>
     <t>Annexe</t>
@@ -3450,7 +3447,7 @@
   <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -3532,7 +3529,7 @@
     <row r="4" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A4" s="4"/>
       <c r="B4" s="8" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -3765,7 +3762,7 @@
     <row r="16" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A16" s="4"/>
       <c r="B16" s="8" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C16" s="6">
         <v>1</v>
@@ -3954,7 +3951,7 @@
         <v>2</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -4002,7 +3999,7 @@
     <row r="28" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A28" s="4"/>
       <c r="B28" s="8" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C28" s="6">
         <v>1</v>
@@ -4017,7 +4014,7 @@
         <v>1</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -4172,7 +4169,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -4194,7 +4191,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -4217,7 +4214,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -4243,7 +4240,7 @@
     <row r="40" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A40" s="4"/>
       <c r="B40" s="8" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C40" s="6">
         <v>0</v>
@@ -4431,7 +4428,7 @@
         <v>2</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -4455,7 +4452,7 @@
         <v>0</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -4477,13 +4474,13 @@
         <v>2</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A52" s="4"/>
       <c r="B52" s="8" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C52" s="6">
         <v>0</v>
@@ -4594,7 +4591,7 @@
         <v>0</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -4718,7 +4715,7 @@
     <row r="64" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A64" s="4"/>
       <c r="B64" s="8" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C64" s="6">
         <v>1</v>
@@ -4733,7 +4730,7 @@
         <v>1</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -4907,7 +4904,7 @@
         <v>1</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="74" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -4954,7 +4951,7 @@
     <row r="76" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A76" s="4"/>
       <c r="B76" s="8" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C76" s="6">
         <v>2</v>
@@ -4970,7 +4967,7 @@
         <v>0</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -5144,7 +5141,7 @@
         <v>3</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="86" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -5190,7 +5187,7 @@
     <row r="88" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A88" s="4"/>
       <c r="B88" s="8" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C88" s="6">
         <v>0</v>
